--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Sonata Software Ltd/Pruned_Excel/Semi_Final/Sonata Software Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Sonata Software Ltd/Pruned_Excel/Semi_Final/Sonata Software Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="111">
   <si>
     <t>Balance Sheet of Sonata Software(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,64 +62,67 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 05</t>
-  </si>
-  <si>
-    <t>Mar 06</t>
-  </si>
-  <si>
-    <t>Mar 07</t>
-  </si>
-  <si>
-    <t>Mar 08</t>
-  </si>
-  <si>
-    <t>Mar 09</t>
-  </si>
-  <si>
-    <t>Mar 10</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of Sonata Software(in Rs. Cr.)</t>
@@ -215,9 +221,6 @@
     <t>Quarterly Results of Sonata Software(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -275,49 +278,10 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>09</t>
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -744,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,824 +754,887 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>10.52</v>
-      </c>
-      <c r="C2">
-        <v>150.47</v>
       </c>
       <c r="D2">
         <v>150.47</v>
       </c>
       <c r="E2">
+        <v>150.47</v>
+      </c>
+      <c r="F2">
         <v>160.99</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4.06</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10.18</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>171.17</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>20.69</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>22.87</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>88.88</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>82.29000000000001</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>171.17</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>10.52</v>
-      </c>
-      <c r="C3">
-        <v>146.26</v>
       </c>
       <c r="D3">
         <v>146.26</v>
       </c>
       <c r="E3">
+        <v>146.26</v>
+      </c>
+      <c r="F3">
         <v>156.78</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>11.55</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>21.11</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>177.89</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>27.54</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>29.12</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>70.8</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>107.09</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>177.89</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>10.52</v>
-      </c>
-      <c r="C4">
-        <v>168.02</v>
       </c>
       <c r="D4">
         <v>168.02</v>
       </c>
       <c r="E4">
+        <v>168.02</v>
+      </c>
+      <c r="F4">
         <v>178.53</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>7.51</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>16.79</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>195.33</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>26.42</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>31.37</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>118.51</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>76.81999999999999</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>195.33</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>10.52</v>
-      </c>
-      <c r="C5">
-        <v>188.72</v>
       </c>
       <c r="D5">
         <v>188.72</v>
       </c>
       <c r="E5">
+        <v>188.72</v>
+      </c>
+      <c r="F5">
         <v>199.23</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8.26</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>19.43</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>218.66</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>24.99</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>29.31</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>141.56</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>77.09999999999999</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>218.66</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>10.52</v>
-      </c>
-      <c r="C6">
-        <v>213.31</v>
       </c>
       <c r="D6">
         <v>213.31</v>
       </c>
       <c r="E6">
+        <v>213.31</v>
+      </c>
+      <c r="F6">
         <v>223.83</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>20.69</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>25.22</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>249.04</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>24.23</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>27.24</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>161.18</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>87.86</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>249.04</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>10.52</v>
-      </c>
-      <c r="C7">
-        <v>281.65</v>
       </c>
       <c r="D7">
         <v>281.65</v>
       </c>
       <c r="E7">
+        <v>281.65</v>
+      </c>
+      <c r="F7">
         <v>292.17</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>14.37</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>31.61</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>323.78</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>31.22</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>31.62</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>156.92</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>166.86</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>323.78</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>10.52</v>
-      </c>
-      <c r="C8">
-        <v>303.39</v>
       </c>
       <c r="D8">
         <v>303.39</v>
       </c>
       <c r="E8">
+        <v>303.39</v>
+      </c>
+      <c r="F8">
         <v>313.91</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>17.73</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>35.29</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>350.1</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>30.44</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>34.72</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>187.4</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>162.71</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>350.1</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>10.52</v>
-      </c>
-      <c r="C9">
-        <v>288.19</v>
       </c>
       <c r="D9">
         <v>288.19</v>
       </c>
       <c r="E9">
+        <v>288.19</v>
+      </c>
+      <c r="F9">
         <v>298.7</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>31.85</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>40.44</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>342.23</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>28.51</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>29.52</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>157.9</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>184.33</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>342.23</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>10.52</v>
-      </c>
-      <c r="C10">
-        <v>299.2</v>
       </c>
       <c r="D10">
         <v>299.2</v>
       </c>
       <c r="E10">
+        <v>299.2</v>
+      </c>
+      <c r="F10">
         <v>309.72</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>6.48</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>56.62</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>372.04</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>20.62</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>20.64</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>171.69</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>200.35</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>372.04</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>10.52</v>
-      </c>
-      <c r="C11">
-        <v>308.8</v>
       </c>
       <c r="D11">
         <v>308.8</v>
       </c>
       <c r="E11">
+        <v>308.8</v>
+      </c>
+      <c r="F11">
         <v>319.32</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>5.98</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>87.3</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>407.31</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>14.73</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>14.76</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>134.02</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>273.29</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>407.31</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>10.52</v>
-      </c>
-      <c r="C12">
-        <v>346.78</v>
       </c>
       <c r="D12">
         <v>346.78</v>
       </c>
       <c r="E12">
+        <v>346.78</v>
+      </c>
+      <c r="F12">
         <v>357.3</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>8.960000000000001</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>118.8</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>477.94</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>9.99</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>12.66</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>129.76</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>348.18</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>477.94</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>10.52</v>
-      </c>
-      <c r="C13">
-        <v>349.84</v>
       </c>
       <c r="D13">
         <v>349.84</v>
       </c>
       <c r="E13">
+        <v>349.84</v>
+      </c>
+      <c r="F13">
         <v>360.35</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>11.45</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>150.51</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>514.88</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>16.5</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>18.69</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>101.79</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>413.09</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>514.88</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>10.37</v>
-      </c>
-      <c r="C14">
-        <v>457.79</v>
       </c>
       <c r="D14">
         <v>457.79</v>
       </c>
       <c r="E14">
+        <v>457.79</v>
+      </c>
+      <c r="F14">
         <v>468.16</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>31.89</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>77.53</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>551.92</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>16.15</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>19.38</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>103.5</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>448.42</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>551.92</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>10.38</v>
-      </c>
-      <c r="C15">
-        <v>481.05</v>
       </c>
       <c r="D15">
         <v>481.05</v>
       </c>
       <c r="E15">
+        <v>481.05</v>
+      </c>
+      <c r="F15">
         <v>491.43</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>42.28</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>109.9</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>609.05</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>17.57</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>20.66</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>169.03</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>440.02</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>609.05</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>10.39</v>
-      </c>
-      <c r="C16">
-        <v>522.76</v>
       </c>
       <c r="D16">
         <v>522.76</v>
       </c>
       <c r="E16">
+        <v>522.76</v>
+      </c>
+      <c r="F16">
         <v>533.15</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>42.17</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>106.05</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>656.92</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>17.11</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>19.96</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>124.29</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>532.63</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>656.92</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>10.39</v>
-      </c>
-      <c r="C17">
-        <v>360.05</v>
       </c>
       <c r="D17">
         <v>360.05</v>
       </c>
       <c r="E17">
+        <v>360.05</v>
+      </c>
+      <c r="F17">
         <v>373.28</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>111.24</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>205.25</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>652.35</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>100.08</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>102.9</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>229.23</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>423.12</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>652.35</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>10.39</v>
-      </c>
-      <c r="C18">
-        <v>516.8200000000001</v>
       </c>
       <c r="D18">
         <v>516.8200000000001</v>
       </c>
       <c r="E18">
+        <v>516.8200000000001</v>
+      </c>
+      <c r="F18">
         <v>529.52</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>81.26000000000001</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>188.79</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>782.54</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>81.23</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>84.16</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>219.16</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>563.38</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>782.54</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>10.39</v>
-      </c>
-      <c r="C19">
-        <v>558.71</v>
       </c>
       <c r="D19">
         <v>558.71</v>
       </c>
       <c r="E19">
+        <v>558.71</v>
+      </c>
+      <c r="F19">
         <v>571.75</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>65.91</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>178.71</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>803.29</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>67.44</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>70.27</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>218.41</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>584.88</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>803.29</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>13.87</v>
-      </c>
-      <c r="C20">
-        <v>530.29</v>
       </c>
       <c r="D20">
         <v>530.29</v>
       </c>
       <c r="E20">
+        <v>530.29</v>
+      </c>
+      <c r="F20">
         <v>553.6</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>95.55</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>217.5</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>802.39</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>53.23</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>56.07</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>225.86</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>576.53</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>802.39</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>27.75</v>
-      </c>
-      <c r="C21">
-        <v>665.66</v>
       </c>
       <c r="D21">
         <v>665.66</v>
       </c>
       <c r="E21">
+        <v>665.66</v>
+      </c>
+      <c r="F21">
         <v>706.6799999999999</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>108</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>207.79</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>952.8200000000001</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>60.3</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>63.12</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>260.38</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>692.4400000000001</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>952.8200000000001</v>
       </c>
     </row>
@@ -1618,618 +1645,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>18.35</v>
+      </c>
+      <c r="D2">
+        <v>19.48</v>
+      </c>
+      <c r="E2">
+        <v>-12.96</v>
+      </c>
+      <c r="F2">
+        <v>-7.13</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>-0.61</v>
+      </c>
+      <c r="I2">
+        <v>13.57</v>
+      </c>
+      <c r="J2">
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>28.96</v>
+      </c>
+      <c r="D3">
+        <v>28.08</v>
+      </c>
+      <c r="E3">
+        <v>3.9</v>
+      </c>
+      <c r="F3">
+        <v>-8.960000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>23.02</v>
+      </c>
+      <c r="I3">
+        <v>12.96</v>
+      </c>
+      <c r="J3">
+        <v>35.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>34.74</v>
+      </c>
+      <c r="D4">
+        <v>44.06</v>
+      </c>
+      <c r="E4">
+        <v>-48.23</v>
+      </c>
+      <c r="F4">
+        <v>-13.19</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>-17.36</v>
+      </c>
+      <c r="I4">
+        <v>35.99</v>
+      </c>
+      <c r="J4">
+        <v>18.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>39.58</v>
+      </c>
+      <c r="D5">
+        <v>42.19</v>
+      </c>
+      <c r="E5">
+        <v>-33.45</v>
+      </c>
+      <c r="F5">
+        <v>-13.53</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-4.79</v>
+      </c>
+      <c r="I5">
+        <v>18.62</v>
+      </c>
+      <c r="J5">
+        <v>13.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>56.54</v>
+      </c>
+      <c r="D6">
+        <v>56.33</v>
+      </c>
+      <c r="E6">
+        <v>-29.98</v>
+      </c>
+      <c r="F6">
+        <v>-26.22</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.13</v>
+      </c>
+      <c r="I6">
+        <v>13.84</v>
+      </c>
+      <c r="J6">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>61.71</v>
+      </c>
+      <c r="D7">
+        <v>42.81</v>
+      </c>
+      <c r="E7">
+        <v>-20.86</v>
+      </c>
+      <c r="F7">
+        <v>-11.1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>10.86</v>
+      </c>
+      <c r="I7">
+        <v>13.96</v>
+      </c>
+      <c r="J7">
+        <v>24.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>64.28</v>
+      </c>
+      <c r="D8">
+        <v>45.19</v>
+      </c>
+      <c r="E8">
+        <v>-9.15</v>
+      </c>
+      <c r="F8">
+        <v>-21.98</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>14.05</v>
+      </c>
+      <c r="I8">
+        <v>24.82</v>
+      </c>
+      <c r="J8">
+        <v>38.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>20.28</v>
+      </c>
+      <c r="D9">
+        <v>8.69</v>
+      </c>
+      <c r="E9">
+        <v>2.83</v>
+      </c>
+      <c r="F9">
+        <v>-6.08</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>5.44</v>
+      </c>
+      <c r="I9">
+        <v>38.87</v>
+      </c>
+      <c r="J9">
+        <v>44.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>23.69</v>
+      </c>
+      <c r="D10">
+        <v>19.7</v>
+      </c>
+      <c r="E10">
+        <v>6.91</v>
+      </c>
+      <c r="F10">
+        <v>7.65</v>
+      </c>
+      <c r="G10">
+        <v>43.49</v>
+      </c>
+      <c r="H10">
+        <v>77.75</v>
+      </c>
+      <c r="I10">
+        <v>0.66</v>
+      </c>
+      <c r="J10">
+        <v>78.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>68.84</v>
+      </c>
+      <c r="D11">
+        <v>57.99</v>
+      </c>
+      <c r="E11">
+        <v>39.37</v>
+      </c>
+      <c r="F11">
+        <v>-38.25</v>
+      </c>
+      <c r="G11">
+        <v>-1.02</v>
+      </c>
+      <c r="H11">
+        <v>58.09</v>
+      </c>
+      <c r="I11">
+        <v>78.41</v>
+      </c>
+      <c r="J11">
+        <v>136.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>153.81</v>
+      </c>
+      <c r="D12">
+        <v>83.41</v>
+      </c>
+      <c r="E12">
+        <v>-103.48</v>
+      </c>
+      <c r="F12">
+        <v>-68.09999999999999</v>
+      </c>
+      <c r="G12">
+        <v>-0.93</v>
+      </c>
+      <c r="H12">
+        <v>-89.09999999999999</v>
+      </c>
+      <c r="I12">
+        <v>136.1</v>
+      </c>
+      <c r="J12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>158.64</v>
+      </c>
+      <c r="D13">
+        <v>82.41</v>
+      </c>
+      <c r="E13">
+        <v>-30.83</v>
+      </c>
+      <c r="F13">
+        <v>-78.81999999999999</v>
+      </c>
+      <c r="G13">
+        <v>-1.37</v>
+      </c>
+      <c r="H13">
+        <v>-28.61</v>
+      </c>
+      <c r="I13">
+        <v>47</v>
+      </c>
+      <c r="J13">
+        <v>18.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>179.18</v>
+      </c>
+      <c r="D14">
+        <v>97.3</v>
+      </c>
+      <c r="E14">
+        <v>49.93</v>
+      </c>
+      <c r="F14">
+        <v>-142.69</v>
+      </c>
+      <c r="G14">
+        <v>1.47</v>
+      </c>
+      <c r="H14">
+        <v>6.01</v>
+      </c>
+      <c r="I14">
+        <v>18.45</v>
+      </c>
+      <c r="J14">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>198.24</v>
+      </c>
+      <c r="D15">
+        <v>148.94</v>
+      </c>
+      <c r="E15">
+        <v>55.58</v>
+      </c>
+      <c r="F15">
+        <v>-114.04</v>
+      </c>
+      <c r="G15">
+        <v>1.33</v>
+      </c>
+      <c r="H15">
+        <v>91.81</v>
+      </c>
+      <c r="I15">
+        <v>24.46</v>
+      </c>
+      <c r="J15">
+        <v>116.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>239.37</v>
+      </c>
+      <c r="D16">
+        <v>37.12</v>
+      </c>
+      <c r="E16">
+        <v>60.72</v>
+      </c>
+      <c r="F16">
+        <v>-142.75</v>
+      </c>
+      <c r="G16">
+        <v>0.38</v>
+      </c>
+      <c r="H16">
+        <v>-44.53</v>
+      </c>
+      <c r="I16">
+        <v>116.27</v>
+      </c>
+      <c r="J16">
+        <v>71.73999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>268.75</v>
+      </c>
+      <c r="D17">
+        <v>281.23</v>
+      </c>
+      <c r="E17">
+        <v>145.66</v>
+      </c>
+      <c r="F17">
+        <v>-360.37</v>
+      </c>
+      <c r="G17">
+        <v>-0.64</v>
+      </c>
+      <c r="H17">
+        <v>65.88</v>
+      </c>
+      <c r="I17">
+        <v>71.73999999999999</v>
+      </c>
+      <c r="J17">
+        <v>137.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>250.29</v>
+      </c>
+      <c r="D18">
+        <v>187.97</v>
+      </c>
+      <c r="E18">
+        <v>-7.48</v>
+      </c>
+      <c r="F18">
+        <v>-57.01</v>
+      </c>
+      <c r="G18">
+        <v>-0.7</v>
+      </c>
+      <c r="H18">
+        <v>122.78</v>
+      </c>
+      <c r="I18">
+        <v>137.62</v>
+      </c>
+      <c r="J18">
+        <v>260.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>280.23</v>
+      </c>
+      <c r="D19">
+        <v>143.57</v>
+      </c>
+      <c r="E19">
+        <v>78.63</v>
+      </c>
+      <c r="F19">
+        <v>-204.19</v>
+      </c>
+      <c r="G19">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H19">
+        <v>18.08</v>
+      </c>
+      <c r="I19">
+        <v>260.4</v>
+      </c>
+      <c r="J19">
+        <v>278.48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>264.17</v>
+      </c>
+      <c r="D20">
+        <v>-54.59</v>
+      </c>
+      <c r="E20">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="F20">
+        <v>-250.76</v>
+      </c>
+      <c r="G20">
+        <v>-0.92</v>
+      </c>
+      <c r="H20">
+        <v>-229.17</v>
+      </c>
+      <c r="I20">
+        <v>278.48</v>
+      </c>
+      <c r="J20">
+        <v>49.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>18.35</v>
-      </c>
-      <c r="C2">
-        <v>19.48</v>
-      </c>
-      <c r="D2">
-        <v>-12.96</v>
-      </c>
-      <c r="E2">
-        <v>-7.13</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>-0.61</v>
-      </c>
-      <c r="H2">
-        <v>13.57</v>
-      </c>
-      <c r="I2">
-        <v>12.96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>28.96</v>
-      </c>
-      <c r="C3">
-        <v>28.08</v>
-      </c>
-      <c r="D3">
-        <v>3.9</v>
-      </c>
-      <c r="E3">
-        <v>-8.960000000000001</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>23.02</v>
-      </c>
-      <c r="H3">
-        <v>12.96</v>
-      </c>
-      <c r="I3">
-        <v>35.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>34.74</v>
-      </c>
-      <c r="C4">
-        <v>44.06</v>
-      </c>
-      <c r="D4">
-        <v>-48.23</v>
-      </c>
-      <c r="E4">
-        <v>-13.19</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>-17.36</v>
-      </c>
-      <c r="H4">
-        <v>35.99</v>
-      </c>
-      <c r="I4">
-        <v>18.62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>39.58</v>
-      </c>
-      <c r="C5">
-        <v>42.19</v>
-      </c>
-      <c r="D5">
-        <v>-33.45</v>
-      </c>
-      <c r="E5">
-        <v>-13.53</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>-4.79</v>
-      </c>
-      <c r="H5">
-        <v>18.62</v>
-      </c>
-      <c r="I5">
-        <v>13.84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>56.54</v>
-      </c>
-      <c r="C6">
-        <v>56.33</v>
-      </c>
-      <c r="D6">
-        <v>-29.98</v>
-      </c>
-      <c r="E6">
-        <v>-26.22</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.13</v>
-      </c>
-      <c r="H6">
-        <v>13.84</v>
-      </c>
-      <c r="I6">
-        <v>13.96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>61.71</v>
-      </c>
-      <c r="C7">
-        <v>42.81</v>
-      </c>
-      <c r="D7">
-        <v>-20.86</v>
-      </c>
-      <c r="E7">
-        <v>-11.1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>10.86</v>
-      </c>
-      <c r="H7">
-        <v>13.96</v>
-      </c>
-      <c r="I7">
-        <v>24.82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>64.28</v>
-      </c>
-      <c r="C8">
-        <v>45.19</v>
-      </c>
-      <c r="D8">
-        <v>-9.15</v>
-      </c>
-      <c r="E8">
-        <v>-21.98</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>14.05</v>
-      </c>
-      <c r="H8">
-        <v>24.82</v>
-      </c>
-      <c r="I8">
-        <v>38.87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>20.28</v>
-      </c>
-      <c r="C9">
-        <v>8.69</v>
-      </c>
-      <c r="D9">
-        <v>2.83</v>
-      </c>
-      <c r="E9">
-        <v>-6.08</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>5.44</v>
-      </c>
-      <c r="H9">
-        <v>38.87</v>
-      </c>
-      <c r="I9">
-        <v>44.31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>23.69</v>
-      </c>
-      <c r="C10">
-        <v>19.7</v>
-      </c>
-      <c r="D10">
-        <v>6.91</v>
-      </c>
-      <c r="E10">
-        <v>7.65</v>
-      </c>
-      <c r="F10">
-        <v>43.49</v>
-      </c>
-      <c r="G10">
-        <v>77.75</v>
-      </c>
-      <c r="H10">
-        <v>0.66</v>
-      </c>
-      <c r="I10">
-        <v>78.41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>68.84</v>
-      </c>
-      <c r="C11">
-        <v>57.99</v>
-      </c>
-      <c r="D11">
-        <v>39.37</v>
-      </c>
-      <c r="E11">
-        <v>-38.25</v>
-      </c>
-      <c r="F11">
-        <v>-1.02</v>
-      </c>
-      <c r="G11">
-        <v>58.09</v>
-      </c>
-      <c r="H11">
-        <v>78.41</v>
-      </c>
-      <c r="I11">
-        <v>136.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>153.81</v>
-      </c>
-      <c r="C12">
-        <v>83.41</v>
-      </c>
-      <c r="D12">
-        <v>-103.48</v>
-      </c>
-      <c r="E12">
-        <v>-68.09999999999999</v>
-      </c>
-      <c r="F12">
-        <v>-0.93</v>
-      </c>
-      <c r="G12">
-        <v>-89.09999999999999</v>
-      </c>
-      <c r="H12">
-        <v>136.1</v>
-      </c>
-      <c r="I12">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>158.64</v>
-      </c>
-      <c r="C13">
-        <v>82.41</v>
-      </c>
-      <c r="D13">
-        <v>-30.83</v>
-      </c>
-      <c r="E13">
-        <v>-78.81999999999999</v>
-      </c>
-      <c r="F13">
-        <v>-1.37</v>
-      </c>
-      <c r="G13">
-        <v>-28.61</v>
-      </c>
-      <c r="H13">
-        <v>47</v>
-      </c>
-      <c r="I13">
-        <v>18.39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>179.18</v>
-      </c>
-      <c r="C14">
-        <v>97.3</v>
-      </c>
-      <c r="D14">
-        <v>49.93</v>
-      </c>
-      <c r="E14">
-        <v>-142.69</v>
-      </c>
-      <c r="F14">
-        <v>1.47</v>
-      </c>
-      <c r="G14">
-        <v>6.01</v>
-      </c>
-      <c r="H14">
-        <v>18.45</v>
-      </c>
-      <c r="I14">
-        <v>24.46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>198.24</v>
-      </c>
-      <c r="C15">
-        <v>148.94</v>
-      </c>
-      <c r="D15">
-        <v>55.58</v>
-      </c>
-      <c r="E15">
-        <v>-114.04</v>
-      </c>
-      <c r="F15">
-        <v>1.33</v>
-      </c>
-      <c r="G15">
-        <v>91.81</v>
-      </c>
-      <c r="H15">
-        <v>24.46</v>
-      </c>
-      <c r="I15">
-        <v>116.27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>239.37</v>
-      </c>
-      <c r="C16">
-        <v>37.12</v>
-      </c>
-      <c r="D16">
-        <v>60.72</v>
-      </c>
-      <c r="E16">
-        <v>-142.75</v>
-      </c>
-      <c r="F16">
-        <v>0.38</v>
-      </c>
-      <c r="G16">
-        <v>-44.53</v>
-      </c>
-      <c r="H16">
-        <v>116.27</v>
-      </c>
-      <c r="I16">
-        <v>71.73999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>268.75</v>
-      </c>
-      <c r="C17">
-        <v>281.23</v>
-      </c>
-      <c r="D17">
-        <v>145.66</v>
-      </c>
-      <c r="E17">
-        <v>-360.37</v>
-      </c>
-      <c r="F17">
-        <v>-0.64</v>
-      </c>
-      <c r="G17">
-        <v>65.88</v>
-      </c>
-      <c r="H17">
-        <v>71.73999999999999</v>
-      </c>
-      <c r="I17">
-        <v>137.62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>250.29</v>
-      </c>
-      <c r="C18">
-        <v>187.97</v>
-      </c>
-      <c r="D18">
-        <v>-7.48</v>
-      </c>
-      <c r="E18">
-        <v>-57.01</v>
-      </c>
-      <c r="F18">
-        <v>-0.7</v>
-      </c>
-      <c r="G18">
-        <v>122.78</v>
-      </c>
-      <c r="H18">
-        <v>137.62</v>
-      </c>
-      <c r="I18">
-        <v>260.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>280.23</v>
-      </c>
-      <c r="C19">
-        <v>143.57</v>
-      </c>
-      <c r="D19">
-        <v>78.63</v>
-      </c>
-      <c r="E19">
-        <v>-204.19</v>
-      </c>
-      <c r="F19">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G19">
-        <v>18.08</v>
-      </c>
-      <c r="H19">
-        <v>260.4</v>
-      </c>
-      <c r="I19">
-        <v>278.48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>264.17</v>
-      </c>
-      <c r="C20">
-        <v>-54.59</v>
-      </c>
-      <c r="D20">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="E20">
-        <v>-250.76</v>
-      </c>
-      <c r="F20">
-        <v>-0.92</v>
-      </c>
-      <c r="G20">
-        <v>-229.17</v>
-      </c>
-      <c r="H20">
-        <v>278.48</v>
-      </c>
-      <c r="I20">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>379.77</v>
+      </c>
+      <c r="D21">
+        <v>-190.55</v>
+      </c>
+      <c r="E21">
+        <v>393.2</v>
+      </c>
+      <c r="F21">
+        <v>-232.05</v>
+      </c>
+      <c r="G21">
+        <v>-0.18</v>
+      </c>
+      <c r="H21">
+        <v>-29.58</v>
+      </c>
+      <c r="I21">
         <v>49.31</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>379.77</v>
-      </c>
-      <c r="C21">
-        <v>-190.55</v>
-      </c>
-      <c r="D21">
-        <v>393.2</v>
-      </c>
-      <c r="E21">
-        <v>-232.05</v>
-      </c>
-      <c r="F21">
-        <v>-0.18</v>
-      </c>
-      <c r="G21">
-        <v>-29.58</v>
-      </c>
-      <c r="H21">
-        <v>49.31</v>
-      </c>
-      <c r="I21">
+      <c r="J21">
         <v>19.73</v>
       </c>
     </row>
@@ -2240,86 +2330,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>97.01000000000001</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
       <c r="C2">
         <v>97.01000000000001</v>
@@ -2328,66 +2421,69 @@
         <v>97.01000000000001</v>
       </c>
       <c r="E2">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="F2">
         <v>4.04</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>101.05</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.22</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>42.65</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>3.36</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>33.51</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>82.97</v>
-      </c>
-      <c r="M2">
-        <v>18.08</v>
       </c>
       <c r="N2">
         <v>18.08</v>
       </c>
       <c r="O2">
+        <v>18.08</v>
+      </c>
+      <c r="P2">
         <v>2.28</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>-0.34</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1.95</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>16.13</v>
-      </c>
-      <c r="S2">
-        <v>16.4</v>
       </c>
       <c r="T2">
         <v>16.4</v>
       </c>
       <c r="U2">
-        <v>1.56</v>
+        <v>16.4</v>
       </c>
       <c r="V2">
         <v>1.56</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>148.67</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="C3">
         <v>148.67</v>
@@ -2396,66 +2492,69 @@
         <v>148.67</v>
       </c>
       <c r="E3">
+        <v>148.67</v>
+      </c>
+      <c r="F3">
         <v>2.98</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>151.65</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.25</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>69.45</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>6.96</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>44.82</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>123.12</v>
-      </c>
-      <c r="M3">
-        <v>28.53</v>
       </c>
       <c r="N3">
         <v>28.53</v>
       </c>
       <c r="O3">
+        <v>28.53</v>
+      </c>
+      <c r="P3">
         <v>2.11</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-0.4</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2.8</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>25.73</v>
-      </c>
-      <c r="S3">
-        <v>7.78</v>
       </c>
       <c r="T3">
         <v>7.78</v>
       </c>
       <c r="U3">
-        <v>0.74</v>
+        <v>7.78</v>
       </c>
       <c r="V3">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>185.83</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
       </c>
       <c r="C4">
         <v>185.83</v>
@@ -2464,66 +2563,69 @@
         <v>185.83</v>
       </c>
       <c r="E4">
+        <v>185.83</v>
+      </c>
+      <c r="F4">
         <v>0.49</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>186.32</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.27</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>81.92</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.5</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>9.109999999999999</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>53.05</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>152.09</v>
-      </c>
-      <c r="M4">
-        <v>34.24</v>
       </c>
       <c r="N4">
         <v>34.24</v>
       </c>
       <c r="O4">
+        <v>34.24</v>
+      </c>
+      <c r="P4">
         <v>6.03</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-7.29</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>-0.38</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>34.62</v>
-      </c>
-      <c r="S4">
-        <v>35.13</v>
       </c>
       <c r="T4">
         <v>35.13</v>
       </c>
       <c r="U4">
-        <v>3.34</v>
+        <v>35.13</v>
       </c>
       <c r="V4">
         <v>3.34</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>198.82</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5">
         <v>198.82</v>
@@ -2532,66 +2634,69 @@
         <v>198.82</v>
       </c>
       <c r="E5">
+        <v>198.82</v>
+      </c>
+      <c r="F5">
         <v>2.12</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>200.94</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.3</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>90.97</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.11</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>9.449999999999999</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>55.6</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>161.53</v>
-      </c>
-      <c r="M5">
-        <v>39.42</v>
       </c>
       <c r="N5">
         <v>39.42</v>
       </c>
       <c r="O5">
+        <v>39.42</v>
+      </c>
+      <c r="P5">
         <v>0.77</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1.2</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2.89</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>36.53</v>
-      </c>
-      <c r="S5">
-        <v>36.69</v>
       </c>
       <c r="T5">
         <v>36.69</v>
       </c>
       <c r="U5">
-        <v>3.49</v>
+        <v>36.69</v>
       </c>
       <c r="V5">
         <v>3.49</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>243.58</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
       </c>
       <c r="C6">
         <v>243.58</v>
@@ -2600,66 +2705,69 @@
         <v>243.58</v>
       </c>
       <c r="E6">
+        <v>243.58</v>
+      </c>
+      <c r="F6">
         <v>-11.47</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>232.11</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.43</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>108.64</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.39</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>8.130000000000001</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>53.46</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>176.07</v>
-      </c>
-      <c r="M6">
-        <v>56.04</v>
       </c>
       <c r="N6">
         <v>56.04</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>56.04</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>2.35</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>3.18</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>52.86</v>
-      </c>
-      <c r="S6">
-        <v>53.36</v>
       </c>
       <c r="T6">
         <v>53.36</v>
       </c>
       <c r="U6">
-        <v>5.07</v>
+        <v>53.36</v>
       </c>
       <c r="V6">
         <v>5.07</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>236.09</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
       </c>
       <c r="C7">
         <v>236.09</v>
@@ -2668,114 +2776,117 @@
         <v>236.09</v>
       </c>
       <c r="E7">
+        <v>236.09</v>
+      </c>
+      <c r="F7">
         <v>0.03</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>236.12</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.37</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>116.19</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>7.77</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>46.69</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>174.62</v>
-      </c>
-      <c r="M7">
-        <v>61.5</v>
       </c>
       <c r="N7">
         <v>61.5</v>
       </c>
       <c r="O7">
+        <v>61.5</v>
+      </c>
+      <c r="P7">
         <v>1.01</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1.94</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2.95</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>58.55</v>
-      </c>
-      <c r="S7">
-        <v>60.2</v>
       </c>
       <c r="T7">
         <v>60.2</v>
       </c>
       <c r="U7">
-        <v>5.72</v>
+        <v>60.2</v>
       </c>
       <c r="V7">
         <v>5.72</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>250.23</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
       </c>
       <c r="C8">
         <v>250.23</v>
       </c>
       <c r="D8">
+        <v>250.23</v>
+      </c>
+      <c r="E8">
         <v>252.31</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>3.66</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>255.97</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>139.02</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>9.58</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>43.08</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>191.68</v>
-      </c>
-      <c r="M8">
-        <v>64.28</v>
       </c>
       <c r="N8">
         <v>64.28</v>
       </c>
       <c r="O8">
+        <v>64.28</v>
+      </c>
+      <c r="P8">
         <v>9.970000000000001</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.73</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2.42</v>
-      </c>
-      <c r="R8">
-        <v>61.86</v>
       </c>
       <c r="S8">
         <v>61.86</v>
@@ -2784,66 +2895,69 @@
         <v>61.86</v>
       </c>
       <c r="U8">
-        <v>5.88</v>
+        <v>61.86</v>
       </c>
       <c r="V8">
         <v>5.88</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>223.4</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
       </c>
       <c r="C9">
         <v>223.4</v>
       </c>
       <c r="D9">
+        <v>223.4</v>
+      </c>
+      <c r="E9">
         <v>225.37</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>8.35</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>233.73</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>146.12</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.02</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>10.77</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>56.55</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>213.45</v>
-      </c>
-      <c r="M9">
-        <v>20.28</v>
       </c>
       <c r="N9">
         <v>20.28</v>
       </c>
       <c r="O9">
+        <v>20.28</v>
+      </c>
+      <c r="P9">
         <v>6.1</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-0.73</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>5.37</v>
-      </c>
-      <c r="R9">
-        <v>14.91</v>
       </c>
       <c r="S9">
         <v>14.91</v>
@@ -2852,66 +2966,69 @@
         <v>14.91</v>
       </c>
       <c r="U9">
-        <v>1.42</v>
+        <v>14.91</v>
       </c>
       <c r="V9">
         <v>1.42</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>231.62</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
       </c>
       <c r="C10">
         <v>231.62</v>
       </c>
       <c r="D10">
+        <v>231.62</v>
+      </c>
+      <c r="E10">
         <v>232.97</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>10.51</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>243.49</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>129.19</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.05</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>9.720000000000001</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>80.83</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>219.79</v>
-      </c>
-      <c r="M10">
-        <v>23.69</v>
       </c>
       <c r="N10">
         <v>23.69</v>
       </c>
       <c r="O10">
+        <v>23.69</v>
+      </c>
+      <c r="P10">
         <v>5.3</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>3.67</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>7.93</v>
-      </c>
-      <c r="R10">
-        <v>15.76</v>
       </c>
       <c r="S10">
         <v>15.76</v>
@@ -2920,66 +3037,69 @@
         <v>15.76</v>
       </c>
       <c r="U10">
-        <v>1.5</v>
+        <v>15.76</v>
       </c>
       <c r="V10">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>332.83</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
       </c>
       <c r="C11">
         <v>332.83</v>
       </c>
       <c r="D11">
+        <v>332.83</v>
+      </c>
+      <c r="E11">
         <v>333.7</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>17.39</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>351.1</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>186.27</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.17</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>7.39</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>88.42</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>282.25</v>
-      </c>
-      <c r="M11">
-        <v>68.84</v>
       </c>
       <c r="N11">
         <v>68.84</v>
       </c>
       <c r="O11">
+        <v>68.84</v>
+      </c>
+      <c r="P11">
         <v>20.59</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-6.86</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>15</v>
-      </c>
-      <c r="R11">
-        <v>53.84</v>
       </c>
       <c r="S11">
         <v>53.84</v>
@@ -2988,66 +3108,69 @@
         <v>53.84</v>
       </c>
       <c r="U11">
-        <v>5.12</v>
+        <v>53.84</v>
       </c>
       <c r="V11">
         <v>5.12</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>466.13</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
       </c>
       <c r="C12">
         <v>466.13</v>
       </c>
       <c r="D12">
+        <v>466.13</v>
+      </c>
+      <c r="E12">
         <v>466.88</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>31.64</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>498.52</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>257.57</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1.14</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>5.22</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>80.52</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>344.71</v>
-      </c>
-      <c r="M12">
-        <v>153.81</v>
       </c>
       <c r="N12">
         <v>153.81</v>
       </c>
       <c r="O12">
+        <v>153.81</v>
+      </c>
+      <c r="P12">
         <v>34.28</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1.87</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>36.34</v>
-      </c>
-      <c r="R12">
-        <v>117.47</v>
       </c>
       <c r="S12">
         <v>117.47</v>
@@ -3056,66 +3179,69 @@
         <v>117.47</v>
       </c>
       <c r="U12">
-        <v>11.17</v>
+        <v>117.47</v>
       </c>
       <c r="V12">
         <v>11.17</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>504.33</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
       </c>
       <c r="C13">
         <v>504.33</v>
       </c>
       <c r="D13">
+        <v>504.33</v>
+      </c>
+      <c r="E13">
         <v>504.8</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>38.94</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>543.74</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>286.42</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3.91</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>4.37</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>88.97</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>385.1</v>
-      </c>
-      <c r="M13">
-        <v>158.64</v>
       </c>
       <c r="N13">
         <v>158.64</v>
       </c>
       <c r="O13">
+        <v>158.64</v>
+      </c>
+      <c r="P13">
         <v>39.18</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-1.58</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>41.2</v>
-      </c>
-      <c r="R13">
-        <v>117.44</v>
       </c>
       <c r="S13">
         <v>117.44</v>
@@ -3124,66 +3250,69 @@
         <v>117.44</v>
       </c>
       <c r="U13">
-        <v>11.17</v>
+        <v>117.44</v>
       </c>
       <c r="V13">
         <v>11.17</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>590.88</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
       </c>
       <c r="C14">
         <v>590.88</v>
       </c>
       <c r="D14">
+        <v>590.88</v>
+      </c>
+      <c r="E14">
         <v>592.6</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>32.34</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>624.9400000000001</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>307.17</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3.99</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4.01</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>109.7</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>451.41</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>173.53</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>179.18</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>45.9</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-2.39</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>45.89</v>
-      </c>
-      <c r="R14">
-        <v>133.29</v>
       </c>
       <c r="S14">
         <v>133.29</v>
@@ -3192,66 +3321,69 @@
         <v>133.29</v>
       </c>
       <c r="U14">
-        <v>12.85</v>
+        <v>133.29</v>
       </c>
       <c r="V14">
         <v>12.85</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>687.86</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
       </c>
       <c r="C15">
         <v>687.86</v>
       </c>
       <c r="D15">
+        <v>687.86</v>
+      </c>
+      <c r="E15">
         <v>688.51</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>41.96</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>730.47</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>364.12</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.17</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>5</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>118.49</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>532.72</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>197.75</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>198.24</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>49.58</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-2.62</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>46.96</v>
-      </c>
-      <c r="R15">
-        <v>151.28</v>
       </c>
       <c r="S15">
         <v>151.28</v>
@@ -3260,66 +3392,69 @@
         <v>151.28</v>
       </c>
       <c r="U15">
+        <v>151.28</v>
+      </c>
+      <c r="V15">
         <v>14.57</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>14.56</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>828.1900000000001</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
       <c r="C16">
         <v>828.1900000000001</v>
       </c>
       <c r="D16">
+        <v>828.1900000000001</v>
+      </c>
+      <c r="E16">
         <v>829.33</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>17.68</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>847.01</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>404.66</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.08</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>6.13</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>150.75</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>608.13</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>238.88</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>239.37</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>72.09999999999999</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-5.16</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>66.94</v>
-      </c>
-      <c r="R16">
-        <v>172.43</v>
       </c>
       <c r="S16">
         <v>172.43</v>
@@ -3328,66 +3463,69 @@
         <v>172.43</v>
       </c>
       <c r="U16">
+        <v>172.43</v>
+      </c>
+      <c r="V16">
         <v>16.59</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>16.58</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>875.5700000000001</v>
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
       <c r="C17">
         <v>875.5700000000001</v>
       </c>
       <c r="D17">
+        <v>875.5700000000001</v>
+      </c>
+      <c r="E17">
         <v>876.84</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>97.13</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>973.97</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>467.06</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>10.9</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>20.6</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>143.14</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>705.22</v>
-      </c>
-      <c r="M17">
-        <v>268.75</v>
       </c>
       <c r="N17">
         <v>268.75</v>
       </c>
       <c r="O17">
+        <v>268.75</v>
+      </c>
+      <c r="P17">
         <v>60.01</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-2.52</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>57.49</v>
-      </c>
-      <c r="R17">
-        <v>211.26</v>
       </c>
       <c r="S17">
         <v>211.26</v>
@@ -3396,66 +3534,69 @@
         <v>211.26</v>
       </c>
       <c r="U17">
-        <v>20.33</v>
+        <v>211.26</v>
       </c>
       <c r="V17">
         <v>20.33</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>20.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>781.26</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
       <c r="C18">
         <v>781.26</v>
       </c>
       <c r="D18">
+        <v>781.26</v>
+      </c>
+      <c r="E18">
         <v>781.41</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>44.8</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>826.21</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>413.33</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>9.720000000000001</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>18.9</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>73.23</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>575.92</v>
-      </c>
-      <c r="M18">
-        <v>250.29</v>
       </c>
       <c r="N18">
         <v>250.29</v>
       </c>
       <c r="O18">
+        <v>250.29</v>
+      </c>
+      <c r="P18">
         <v>59.04</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-2.63</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>71.26000000000001</v>
-      </c>
-      <c r="R18">
-        <v>179.03</v>
       </c>
       <c r="S18">
         <v>179.03</v>
@@ -3464,66 +3605,69 @@
         <v>179.03</v>
       </c>
       <c r="U18">
-        <v>17.23</v>
+        <v>179.03</v>
       </c>
       <c r="V18">
         <v>17.23</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>17.23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>758.0700000000001</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
       <c r="C19">
         <v>758.0700000000001</v>
       </c>
       <c r="D19">
+        <v>758.0700000000001</v>
+      </c>
+      <c r="E19">
         <v>758.14</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>164.24</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>922.38</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>414.99</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>8.779999999999999</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>17.55</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>106.15</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>642.15</v>
-      </c>
-      <c r="M19">
-        <v>280.23</v>
       </c>
       <c r="N19">
         <v>280.23</v>
       </c>
       <c r="O19">
+        <v>280.23</v>
+      </c>
+      <c r="P19">
         <v>41.97</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>3.07</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>45.04</v>
-      </c>
-      <c r="R19">
-        <v>235.19</v>
       </c>
       <c r="S19">
         <v>235.19</v>
@@ -3532,66 +3676,69 @@
         <v>235.19</v>
       </c>
       <c r="U19">
-        <v>22.63</v>
+        <v>235.19</v>
       </c>
       <c r="V19">
         <v>22.63</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>22.63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>920.85</v>
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20">
         <v>920.85</v>
       </c>
       <c r="D20">
+        <v>920.85</v>
+      </c>
+      <c r="E20">
         <v>920.86</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>159.68</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1080.54</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>543.5</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>6.96</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>18.51</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>145.04</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>816.37</v>
-      </c>
-      <c r="M20">
-        <v>264.17</v>
       </c>
       <c r="N20">
         <v>264.17</v>
       </c>
       <c r="O20">
+        <v>264.17</v>
+      </c>
+      <c r="P20">
         <v>39.58</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>4.22</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>43.8</v>
-      </c>
-      <c r="R20">
-        <v>220.37</v>
       </c>
       <c r="S20">
         <v>220.37</v>
@@ -3600,66 +3747,69 @@
         <v>220.37</v>
       </c>
       <c r="U20">
-        <v>15.89</v>
+        <v>220.37</v>
       </c>
       <c r="V20">
         <v>15.89</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>15.89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>950.22</v>
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
       </c>
       <c r="C21">
         <v>950.22</v>
       </c>
       <c r="D21">
+        <v>950.22</v>
+      </c>
+      <c r="E21">
         <v>950.3</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>334.04</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1284.34</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>670.24</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>4.92</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>21.13</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>132.89</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>904.5700000000001</v>
-      </c>
-      <c r="M21">
-        <v>379.77</v>
       </c>
       <c r="N21">
         <v>379.77</v>
       </c>
       <c r="O21">
+        <v>379.77</v>
+      </c>
+      <c r="P21">
         <v>19.84</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>1.13</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>20.97</v>
-      </c>
-      <c r="R21">
-        <v>358.8</v>
       </c>
       <c r="S21">
         <v>358.8</v>
@@ -3668,9 +3818,12 @@
         <v>358.8</v>
       </c>
       <c r="U21">
+        <v>358.8</v>
+      </c>
+      <c r="V21">
         <v>12.93</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>12.91</v>
       </c>
     </row>
@@ -3689,84 +3842,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>83.78</v>
@@ -3831,13 +3984,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>89.53</v>
@@ -3902,13 +4055,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>93.92</v>
@@ -3973,13 +4126,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>101.17</v>
@@ -4044,13 +4197,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>114.6</v>
@@ -4115,13 +4268,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>124.33</v>
@@ -4186,13 +4339,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>126.03</v>
@@ -4257,13 +4410,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>117.62</v>
@@ -4328,13 +4481,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>118.61</v>
@@ -4399,13 +4552,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>124.56</v>
@@ -4470,13 +4623,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>143.55</v>
@@ -4541,13 +4694,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>139.08</v>
@@ -4612,13 +4765,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>153.78</v>
@@ -4683,13 +4836,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>148.6</v>
@@ -4754,13 +4907,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>150.01</v>
@@ -4825,13 +4978,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <v>149.43</v>
@@ -4896,13 +5049,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
         <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
       </c>
       <c r="D18">
         <v>179.16</v>
@@ -4967,13 +5120,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D19">
         <v>180.28</v>
@@ -5038,13 +5191,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <v>179.62</v>
@@ -5109,13 +5262,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>192.45</v>
@@ -5180,13 +5333,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D22">
         <v>205.83</v>
@@ -5251,13 +5404,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
         <v>90</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
       </c>
       <c r="D23">
         <v>211.99</v>
@@ -5322,13 +5475,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
         <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
       </c>
       <c r="D24">
         <v>219.07</v>
@@ -5393,13 +5546,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D25">
         <v>208.77</v>
@@ -5464,13 +5617,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>216.11</v>
@@ -5535,13 +5688,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <v>230.18</v>
@@ -5606,13 +5759,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>221.78</v>
@@ -5677,13 +5830,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>104</v>
       </c>
       <c r="D29">
         <v>182.15</v>
@@ -5748,13 +5901,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D30">
         <v>209.14</v>
@@ -5819,13 +5972,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <v>193.08</v>
@@ -5890,13 +6043,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D32">
         <v>197.03</v>
@@ -5961,13 +6114,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D33">
         <v>188.86</v>
@@ -6032,13 +6185,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <v>189.04</v>
@@ -6103,13 +6256,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D35">
         <v>185.87</v>
@@ -6174,13 +6327,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D36">
         <v>194.37</v>
@@ -6245,13 +6398,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <v>218.51</v>
@@ -6316,13 +6469,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D38">
         <v>237.19</v>
@@ -6387,13 +6540,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D39">
         <v>233.17</v>
@@ -6458,13 +6611,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D40">
         <v>231.98</v>
@@ -6529,13 +6682,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>234.87</v>
@@ -6600,13 +6753,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <v>240.17</v>
@@ -6671,13 +6824,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>242.76</v>
@@ -6742,13 +6895,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <v>232.5</v>
@@ -6813,13 +6966,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <v>248.95</v>
@@ -6884,13 +7037,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>235.26</v>
@@ -6960,1185 +7113,1248 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>9.23</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2.04</v>
-      </c>
-      <c r="D2">
-        <v>1.72</v>
       </c>
       <c r="E2">
         <v>1.72</v>
       </c>
       <c r="F2">
+        <v>1.72</v>
+      </c>
+      <c r="G2">
         <v>1.56</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>22.09</v>
-      </c>
-      <c r="H2">
-        <v>18.63</v>
       </c>
       <c r="I2">
         <v>18.63</v>
       </c>
       <c r="J2">
+        <v>18.63</v>
+      </c>
+      <c r="K2">
         <v>16.9</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>10.18</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>9.58</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>41.67</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>34.58</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>58.33</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>241.52</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>11.27</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>14.14</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3.38</v>
-      </c>
-      <c r="D3">
-        <v>2.71</v>
       </c>
       <c r="E3">
         <v>2.71</v>
       </c>
       <c r="F3">
+        <v>2.71</v>
+      </c>
+      <c r="G3">
         <v>0.74</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>23.87</v>
-      </c>
-      <c r="H3">
-        <v>19.18</v>
       </c>
       <c r="I3">
         <v>19.18</v>
       </c>
       <c r="J3">
+        <v>19.18</v>
+      </c>
+      <c r="K3">
         <v>5.23</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>4.96</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>4.37</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>135.16</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>71.31999999999999</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-35.16</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>331.02</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>9.33</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>17.67</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4.17</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3.3</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3.26</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3.34</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>23.59</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>18.69</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>18.42</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>18.9</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>19.67</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>17.98</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>32.92</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>26.14</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>67.08</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>640.2</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>14.6</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>18.91</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4.66</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3.76</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3.75</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3.49</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>24.63</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>19.88</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>19.82</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>18.45</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>18.41</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>16.77</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>31.52</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>25.06</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>68.48</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>323.73</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>6.61</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>23.16</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>6.14</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5.37</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5.33</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5.07</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>26.5</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>23.16</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>23</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>21.9</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>23.83</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>21.42</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>29.56</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>25.65</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>70.44</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>153.77</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>2.38</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>22.45</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>6.59</v>
-      </c>
-      <c r="D7">
-        <v>5.85</v>
       </c>
       <c r="E7">
         <v>5.85</v>
       </c>
       <c r="F7">
+        <v>5.85</v>
+      </c>
+      <c r="G7">
         <v>5.72</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>29.33</v>
-      </c>
-      <c r="H7">
-        <v>26.05</v>
       </c>
       <c r="I7">
         <v>26.05</v>
       </c>
       <c r="J7">
+        <v>26.05</v>
+      </c>
+      <c r="K7">
         <v>25.49</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>20.6</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>18.59</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>29.69</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>26.3</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>70.31</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>570.91</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>8.24</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>23.99</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>7.02</v>
-      </c>
-      <c r="D8">
-        <v>6.11</v>
       </c>
       <c r="E8">
         <v>6.11</v>
       </c>
       <c r="F8">
+        <v>6.11</v>
+      </c>
+      <c r="G8">
         <v>5.88</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>29.27</v>
-      </c>
-      <c r="H8">
-        <v>25.47</v>
       </c>
       <c r="I8">
         <v>25.47</v>
       </c>
       <c r="J8">
+        <v>25.47</v>
+      </c>
+      <c r="K8">
         <v>24.51</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>19.7</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>17.66</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>33.99</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>29.43</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>66.01000000000001</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>410.68</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>5.56</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>21.43</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2.95</v>
-      </c>
-      <c r="D9">
-        <v>1.93</v>
       </c>
       <c r="E9">
         <v>1.93</v>
       </c>
       <c r="F9">
+        <v>1.93</v>
+      </c>
+      <c r="G9">
         <v>1.42</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>13.78</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>9</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>8.99</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>6.61</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>4.99</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>4.35</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>52.91</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>30.71</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>47.09</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>144.45</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>4.65</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>22.15</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>3.18</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>2.26</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.25</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.5</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>14.36</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>10.19</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>10.17</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>6.76</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>5.08</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>4.23</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.05</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>116.77</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>72.22</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-16.77</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>182.66</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>5.46</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>31.73</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>7.27</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>6.56</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>6.55</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>5.12</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>22.89</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>20.68</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>20.63</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>16.13</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>16.86</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>13.21</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.02</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>73.23999999999999</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>64.39</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>26.76</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>330.89</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>4.33</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>44.4</v>
+      </c>
+      <c r="D12">
+        <v>15.23</v>
+      </c>
+      <c r="E12">
+        <v>14.73</v>
+      </c>
+      <c r="F12">
+        <v>14.63</v>
+      </c>
+      <c r="G12">
+        <v>11.17</v>
+      </c>
+      <c r="H12">
+        <v>34.3</v>
+      </c>
+      <c r="I12">
+        <v>33.18</v>
+      </c>
+      <c r="J12">
+        <v>32.94</v>
+      </c>
+      <c r="K12">
+        <v>25.16</v>
+      </c>
+      <c r="L12">
+        <v>32.87</v>
+      </c>
+      <c r="M12">
+        <v>24.57</v>
+      </c>
+      <c r="N12">
+        <v>0.01</v>
+      </c>
+      <c r="O12">
+        <v>62.66</v>
+      </c>
+      <c r="P12">
+        <v>59.99</v>
+      </c>
+      <c r="Q12">
+        <v>37.34</v>
+      </c>
+      <c r="R12">
+        <v>1716.92</v>
+      </c>
+      <c r="S12">
+        <v>10.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>15.87</v>
+      </c>
+      <c r="E13">
+        <v>15.46</v>
+      </c>
+      <c r="F13">
+        <v>15.09</v>
+      </c>
+      <c r="G13">
+        <v>11.17</v>
+      </c>
+      <c r="H13">
+        <v>33.06</v>
+      </c>
+      <c r="I13">
+        <v>32.2</v>
+      </c>
+      <c r="J13">
+        <v>31.42</v>
+      </c>
+      <c r="K13">
+        <v>23.26</v>
+      </c>
+      <c r="L13">
+        <v>32.59</v>
+      </c>
+      <c r="M13">
+        <v>22.81</v>
+      </c>
+      <c r="N13">
+        <v>0.27</v>
+      </c>
+      <c r="O13">
+        <v>80.58</v>
+      </c>
+      <c r="P13">
+        <v>77.69</v>
+      </c>
+      <c r="Q13">
+        <v>19.42</v>
+      </c>
+      <c r="R13">
+        <v>1437.39</v>
+      </c>
+      <c r="S13">
+        <v>8.609999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>57.15</v>
+      </c>
+      <c r="D14">
+        <v>17.51</v>
+      </c>
+      <c r="E14">
+        <v>17.12</v>
+      </c>
+      <c r="F14">
+        <v>17.28</v>
+      </c>
+      <c r="G14">
+        <v>12.85</v>
+      </c>
+      <c r="H14">
+        <v>30.63</v>
+      </c>
+      <c r="I14">
+        <v>29.95</v>
+      </c>
+      <c r="J14">
+        <v>30.23</v>
+      </c>
+      <c r="K14">
+        <v>22.49</v>
+      </c>
+      <c r="L14">
+        <v>28.47</v>
+      </c>
+      <c r="M14">
+        <v>24.15</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>26.78</v>
+      </c>
+      <c r="P14">
+        <v>26</v>
+      </c>
+      <c r="Q14">
+        <v>73.22</v>
+      </c>
+      <c r="R14">
+        <v>1610.89</v>
+      </c>
+      <c r="S14">
+        <v>8.869999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>66.33</v>
+      </c>
+      <c r="D15">
+        <v>19.55</v>
+      </c>
+      <c r="E15">
+        <v>19.07</v>
+      </c>
+      <c r="F15">
+        <v>19.1</v>
+      </c>
+      <c r="G15">
+        <v>14.57</v>
+      </c>
+      <c r="H15">
+        <v>29.47</v>
+      </c>
+      <c r="I15">
+        <v>28.74</v>
+      </c>
+      <c r="J15">
+        <v>28.79</v>
+      </c>
+      <c r="K15">
+        <v>21.97</v>
+      </c>
+      <c r="L15">
+        <v>30.78</v>
+      </c>
+      <c r="M15">
+        <v>24.83</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>63.43</v>
+      </c>
+      <c r="P15">
+        <v>61.4</v>
+      </c>
+      <c r="Q15">
+        <v>36.57</v>
+      </c>
+      <c r="R15">
+        <v>3121.72</v>
+      </c>
+      <c r="S15">
+        <v>15.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>79.81999999999999</v>
+      </c>
+      <c r="D16">
+        <v>23.59</v>
+      </c>
+      <c r="E16">
         <v>23</v>
       </c>
-      <c r="B12">
-        <v>44.4</v>
-      </c>
-      <c r="C12">
-        <v>15.23</v>
-      </c>
-      <c r="D12">
-        <v>14.73</v>
-      </c>
-      <c r="E12">
-        <v>14.63</v>
-      </c>
-      <c r="F12">
-        <v>11.17</v>
-      </c>
-      <c r="G12">
-        <v>34.3</v>
-      </c>
-      <c r="H12">
-        <v>33.18</v>
-      </c>
-      <c r="I12">
-        <v>32.94</v>
-      </c>
-      <c r="J12">
-        <v>25.16</v>
-      </c>
-      <c r="K12">
-        <v>32.87</v>
-      </c>
-      <c r="L12">
-        <v>24.57</v>
-      </c>
-      <c r="M12">
-        <v>0.01</v>
-      </c>
-      <c r="N12">
-        <v>62.66</v>
-      </c>
-      <c r="O12">
-        <v>59.99</v>
-      </c>
-      <c r="P12">
-        <v>37.34</v>
-      </c>
-      <c r="Q12">
-        <v>1716.92</v>
-      </c>
-      <c r="R12">
-        <v>10.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>48</v>
-      </c>
-      <c r="C13">
-        <v>15.87</v>
-      </c>
-      <c r="D13">
-        <v>15.46</v>
-      </c>
-      <c r="E13">
-        <v>15.09</v>
-      </c>
-      <c r="F13">
-        <v>11.17</v>
-      </c>
-      <c r="G13">
-        <v>33.06</v>
-      </c>
-      <c r="H13">
-        <v>32.2</v>
-      </c>
-      <c r="I13">
-        <v>31.42</v>
-      </c>
-      <c r="J13">
-        <v>23.26</v>
-      </c>
-      <c r="K13">
-        <v>32.59</v>
-      </c>
-      <c r="L13">
-        <v>22.81</v>
-      </c>
-      <c r="M13">
-        <v>0.27</v>
-      </c>
-      <c r="N13">
-        <v>80.58</v>
-      </c>
-      <c r="O13">
-        <v>77.69</v>
-      </c>
-      <c r="P13">
-        <v>19.42</v>
-      </c>
-      <c r="Q13">
-        <v>1437.39</v>
-      </c>
-      <c r="R13">
-        <v>8.609999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>57.15</v>
-      </c>
-      <c r="C14">
-        <v>17.51</v>
-      </c>
-      <c r="D14">
-        <v>17.12</v>
-      </c>
-      <c r="E14">
-        <v>17.28</v>
-      </c>
-      <c r="F14">
-        <v>12.85</v>
-      </c>
-      <c r="G14">
-        <v>30.63</v>
-      </c>
-      <c r="H14">
-        <v>29.95</v>
-      </c>
-      <c r="I14">
-        <v>30.23</v>
-      </c>
-      <c r="J14">
-        <v>22.49</v>
-      </c>
-      <c r="K14">
-        <v>28.47</v>
-      </c>
-      <c r="L14">
-        <v>24.15</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>26.78</v>
-      </c>
-      <c r="O14">
-        <v>26</v>
-      </c>
-      <c r="P14">
-        <v>73.22</v>
-      </c>
-      <c r="Q14">
-        <v>1610.89</v>
-      </c>
-      <c r="R14">
-        <v>8.869999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>66.33</v>
-      </c>
-      <c r="C15">
+      <c r="F16">
+        <v>23.04</v>
+      </c>
+      <c r="G16">
+        <v>16.6</v>
+      </c>
+      <c r="H16">
+        <v>29.55</v>
+      </c>
+      <c r="I16">
+        <v>28.81</v>
+      </c>
+      <c r="J16">
+        <v>28.86</v>
+      </c>
+      <c r="K16">
+        <v>20.79</v>
+      </c>
+      <c r="L16">
+        <v>32.34</v>
+      </c>
+      <c r="M16">
+        <v>26.24</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>69.23999999999999</v>
+      </c>
+      <c r="P16">
+        <v>66.86</v>
+      </c>
+      <c r="Q16">
+        <v>30.76</v>
+      </c>
+      <c r="R16">
+        <v>3427.8</v>
+      </c>
+      <c r="S16">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>84.39</v>
+      </c>
+      <c r="D17">
+        <v>28.9</v>
+      </c>
+      <c r="E17">
+        <v>26.92</v>
+      </c>
+      <c r="F17">
+        <v>25.87</v>
+      </c>
+      <c r="G17">
+        <v>20.33</v>
+      </c>
+      <c r="H17">
+        <v>34.24</v>
+      </c>
+      <c r="I17">
+        <v>31.89</v>
+      </c>
+      <c r="J17">
+        <v>30.64</v>
+      </c>
+      <c r="K17">
+        <v>24.09</v>
+      </c>
+      <c r="L17">
+        <v>56.59</v>
+      </c>
+      <c r="M17">
+        <v>32.38</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>138.93</v>
+      </c>
+      <c r="P17">
+        <v>126.58</v>
+      </c>
+      <c r="Q17">
+        <v>-38.93</v>
+      </c>
+      <c r="R17">
+        <v>1556.61</v>
+      </c>
+      <c r="S17">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>75.20999999999999</v>
+      </c>
+      <c r="D18">
+        <v>26.84</v>
+      </c>
+      <c r="E18">
+        <v>25.03</v>
+      </c>
+      <c r="F18">
+        <v>24.09</v>
+      </c>
+      <c r="G18">
+        <v>17.23</v>
+      </c>
+      <c r="H18">
+        <v>35.69</v>
+      </c>
+      <c r="I18">
+        <v>33.27</v>
+      </c>
+      <c r="J18">
+        <v>32.03</v>
+      </c>
+      <c r="K18">
+        <v>22.91</v>
+      </c>
+      <c r="L18">
+        <v>33.8</v>
+      </c>
+      <c r="M18">
+        <v>22.87</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>23.21</v>
+      </c>
+      <c r="P18">
+        <v>20.99</v>
+      </c>
+      <c r="Q18">
+        <v>76.79000000000001</v>
+      </c>
+      <c r="R18">
+        <v>5011.28</v>
+      </c>
+      <c r="S18">
+        <v>17.97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>72.97</v>
+      </c>
+      <c r="D19">
+        <v>29.51</v>
+      </c>
+      <c r="E19">
+        <v>27.82</v>
+      </c>
+      <c r="F19">
+        <v>26.97</v>
+      </c>
+      <c r="G19">
+        <v>22.64</v>
+      </c>
+      <c r="H19">
+        <v>40.43</v>
+      </c>
+      <c r="I19">
+        <v>38.12</v>
+      </c>
+      <c r="J19">
+        <v>36.96</v>
+      </c>
+      <c r="K19">
+        <v>31.02</v>
+      </c>
+      <c r="L19">
+        <v>41.13</v>
+      </c>
+      <c r="M19">
+        <v>29.27</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>79.52</v>
+      </c>
+      <c r="P19">
+        <v>74</v>
+      </c>
+      <c r="Q19">
+        <v>20.48</v>
+      </c>
+      <c r="R19">
+        <v>7387.4</v>
+      </c>
+      <c r="S19">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>66.39</v>
+      </c>
+      <c r="D20">
+        <v>20.88</v>
+      </c>
+      <c r="E20">
         <v>19.55</v>
       </c>
-      <c r="D15">
-        <v>19.07</v>
-      </c>
-      <c r="E15">
-        <v>19.1</v>
-      </c>
-      <c r="F15">
-        <v>14.57</v>
-      </c>
-      <c r="G15">
-        <v>29.47</v>
-      </c>
-      <c r="H15">
-        <v>28.74</v>
-      </c>
-      <c r="I15">
-        <v>28.79</v>
-      </c>
-      <c r="J15">
-        <v>21.97</v>
-      </c>
-      <c r="K15">
-        <v>30.78</v>
-      </c>
-      <c r="L15">
-        <v>24.83</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>63.43</v>
-      </c>
-      <c r="O15">
-        <v>61.4</v>
-      </c>
-      <c r="P15">
-        <v>36.57</v>
-      </c>
-      <c r="Q15">
-        <v>3121.72</v>
-      </c>
-      <c r="R15">
-        <v>15.38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>79.81999999999999</v>
-      </c>
-      <c r="C16">
-        <v>23.59</v>
-      </c>
-      <c r="D16">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>23.04</v>
-      </c>
-      <c r="F16">
-        <v>16.6</v>
-      </c>
-      <c r="G16">
-        <v>29.55</v>
-      </c>
-      <c r="H16">
-        <v>28.81</v>
-      </c>
-      <c r="I16">
-        <v>28.86</v>
-      </c>
-      <c r="J16">
-        <v>20.79</v>
-      </c>
-      <c r="K16">
-        <v>32.34</v>
-      </c>
-      <c r="L16">
-        <v>26.24</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>69.23999999999999</v>
-      </c>
-      <c r="O16">
-        <v>66.86</v>
-      </c>
-      <c r="P16">
-        <v>30.76</v>
-      </c>
-      <c r="Q16">
-        <v>3427.8</v>
-      </c>
-      <c r="R16">
-        <v>13.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>84.39</v>
-      </c>
-      <c r="C17">
-        <v>28.9</v>
-      </c>
-      <c r="D17">
-        <v>26.92</v>
-      </c>
-      <c r="E17">
-        <v>25.87</v>
-      </c>
-      <c r="F17">
-        <v>20.33</v>
-      </c>
-      <c r="G17">
-        <v>34.24</v>
-      </c>
-      <c r="H17">
-        <v>31.89</v>
-      </c>
-      <c r="I17">
-        <v>30.64</v>
-      </c>
-      <c r="J17">
-        <v>24.09</v>
-      </c>
-      <c r="K17">
-        <v>56.59</v>
-      </c>
-      <c r="L17">
-        <v>32.38</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>138.93</v>
-      </c>
-      <c r="O17">
-        <v>126.58</v>
-      </c>
-      <c r="P17">
-        <v>-38.93</v>
-      </c>
-      <c r="Q17">
-        <v>1556.61</v>
-      </c>
-      <c r="R17">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>75.20999999999999</v>
-      </c>
-      <c r="C18">
-        <v>26.84</v>
-      </c>
-      <c r="D18">
-        <v>25.03</v>
-      </c>
-      <c r="E18">
-        <v>24.09</v>
-      </c>
-      <c r="F18">
-        <v>17.23</v>
-      </c>
-      <c r="G18">
-        <v>35.69</v>
-      </c>
-      <c r="H18">
-        <v>33.27</v>
-      </c>
-      <c r="I18">
-        <v>32.03</v>
-      </c>
-      <c r="J18">
-        <v>22.91</v>
-      </c>
-      <c r="K18">
-        <v>33.8</v>
-      </c>
-      <c r="L18">
-        <v>22.87</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>23.21</v>
-      </c>
-      <c r="O18">
-        <v>20.99</v>
-      </c>
-      <c r="P18">
-        <v>76.79000000000001</v>
-      </c>
-      <c r="Q18">
-        <v>5011.28</v>
-      </c>
-      <c r="R18">
-        <v>17.97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>72.97</v>
-      </c>
-      <c r="C19">
-        <v>29.51</v>
-      </c>
-      <c r="D19">
-        <v>27.82</v>
-      </c>
-      <c r="E19">
-        <v>26.97</v>
-      </c>
-      <c r="F19">
-        <v>22.64</v>
-      </c>
-      <c r="G19">
-        <v>40.43</v>
-      </c>
-      <c r="H19">
-        <v>38.12</v>
-      </c>
-      <c r="I19">
-        <v>36.96</v>
-      </c>
-      <c r="J19">
-        <v>31.02</v>
-      </c>
-      <c r="K19">
-        <v>41.13</v>
-      </c>
-      <c r="L19">
-        <v>29.27</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>79.52</v>
-      </c>
-      <c r="O19">
-        <v>74</v>
-      </c>
-      <c r="P19">
-        <v>20.48</v>
-      </c>
-      <c r="Q19">
-        <v>7387.4</v>
-      </c>
-      <c r="R19">
-        <v>24.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>66.39</v>
-      </c>
-      <c r="C20">
-        <v>20.88</v>
-      </c>
-      <c r="D20">
-        <v>19.55</v>
-      </c>
-      <c r="E20">
+      <c r="F20">
         <v>19.05</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>15.89</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>31.45</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>29.44</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>28.68</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>23.93</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>39.8</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>27.46</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
         <v>105.33</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>97.17</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-5.33</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>11421.89</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>39.43</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>34.25</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>14.62</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>13.86</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>13.69</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>12.93</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>42.7</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>40.48</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>39.96</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>37.75</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>50.77</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>37.65</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>60.9</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>57.51</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>39.1</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>19971.76</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>49.21</v>
       </c>
     </row>
